--- a/admin/assets/uploads/add_accreditation.xlsx
+++ b/admin/assets/uploads/add_accreditation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024"/>
+    <workbookView windowWidth="19200" windowHeight="11424"/>
   </bookViews>
   <sheets>
     <sheet name="General Details" sheetId="1" r:id="rId1"/>
@@ -14,32 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Certificate ID</t>
   </si>
   <si>
-    <t>Program ISCED</t>
-  </si>
-  <si>
-    <t>Program Code</t>
-  </si>
-  <si>
-    <t>Institution Code</t>
-  </si>
-  <si>
     <t>Academic Year</t>
   </si>
   <si>
-    <t>College ID</t>
-  </si>
-  <si>
-    <t>Faculty ID</t>
-  </si>
-  <si>
-    <t>Department ID</t>
-  </si>
-  <si>
     <t>Accreditation Date</t>
   </si>
   <si>
@@ -62,6 +44,30 @@
   </si>
   <si>
     <t>E-mail Of Person Filling Form</t>
+  </si>
+  <si>
+    <t>342342324</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Mrs. Helen Johnson</t>
+  </si>
+  <si>
+    <t>87998908</t>
+  </si>
+  <si>
+    <t>a@v.c</t>
+  </si>
+  <si>
+    <t>joan Kampala</t>
+  </si>
+  <si>
+    <t>89798789789</t>
+  </si>
+  <si>
+    <t>j@v.z</t>
   </si>
 </sst>
 </file>
@@ -676,10 +682,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,42 +1006,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.4537037037037" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1759259259259" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.0925925925926" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.9074074074074" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.7777777777778" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.5555555555556" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5555555555556" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.2222222222222" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1759259259259" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.0925925925926" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.9074074074074" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.2222222222222" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1049,32 +1051,50 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>44653</v>
+      </c>
+      <c r="D2" s="2">
+        <v>46845</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="a@v.c"/>
+    <hyperlink ref="J2" r:id="rId2" display="j@v.z"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/admin/assets/uploads/add_accreditation.xlsx
+++ b/admin/assets/uploads/add_accreditation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11424"/>
+    <workbookView windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="General Details" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Certificate ID</t>
   </si>
   <si>
-    <t>Academic Year</t>
-  </si>
-  <si>
     <t>Accreditation Date</t>
   </si>
   <si>
@@ -46,10 +43,25 @@
     <t>E-mail Of Person Filling Form</t>
   </si>
   <si>
+    <t>Name Of Program</t>
+  </si>
+  <si>
+    <t>ISCED Code</t>
+  </si>
+  <si>
+    <t>Institution Code</t>
+  </si>
+  <si>
+    <t>College Code</t>
+  </si>
+  <si>
+    <t>Faculty Code</t>
+  </si>
+  <si>
+    <t>Department Code</t>
+  </si>
+  <si>
     <t>342342324</t>
-  </si>
-  <si>
-    <t>2020</t>
   </si>
   <si>
     <t>Mrs. Helen Johnson</t>
@@ -81,7 +93,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,11 +102,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,141 +580,146 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,94 +1039,111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1759259259259" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.0925925925926" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.9074074074074" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5555555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5555555555556" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.2222222222222" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.0925925925926" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.9074074074074" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.5555555555556" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.5555555555556" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.8888888888889" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="10.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="19.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
         <v>44653</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3">
         <v>46845</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="a@v.c"/>
-    <hyperlink ref="J2" r:id="rId2" display="j@v.z"/>
+    <hyperlink ref="F2" r:id="rId1" display="a@v.c"/>
+    <hyperlink ref="I2" r:id="rId2" display="j@v.z"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
